--- a/tests/artifact/script/UI-ManageUsers.xlsx
+++ b/tests/artifact/script/UI-ManageUsers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6950" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="18350" windowHeight="6920" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -57,7 +57,20 @@
     <definedName name="javaui">'#system'!$N$2:$N$16</definedName>
     <definedName name="browserstack">'#system'!$G$2:$G$7</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -3232,10 +3245,10 @@
     <t>${data.path}\UI-ManageUsers\${xlsxFileName}.xlsx</t>
   </si>
   <si>
-    <t>Manage Users List</t>
-  </si>
-  <si>
-    <t>A1:F100</t>
+    <t>List of Users</t>
+  </si>
+  <si>
+    <t>A1:D100</t>
   </si>
   <si>
     <t>Verify the Godown name available in the file</t>
@@ -3247,7 +3260,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -10651,8 +10664,8 @@
   <sheetPr/>
   <dimension ref="A1:O269"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A264" workbookViewId="0">
-      <selection activeCell="A203" sqref="$A203:$XFD203"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="F253" workbookViewId="0">
+      <selection activeCell="G268" sqref="G268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -17493,8 +17506,8 @@
       <c r="E269" s="32" t="s">
         <v>1056</v>
       </c>
-      <c r="F269" s="61" t="s">
-        <v>1020</v>
+      <c r="F269" s="62" t="s">
+        <v>1053</v>
       </c>
       <c r="G269" s="62"/>
       <c r="H269" s="28"/>
